--- a/clms-warehouse-manage/warehouse-service/src/main/resources/templates/allot_order.xlsx
+++ b/clms-warehouse-manage/warehouse-service/src/main/resources/templates/allot_order.xlsx
@@ -19,22 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
-  <si>
-    <r>
-      <t xml:space="preserve">                      </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>调拨单-ZH20180711000003</t>
-    </r>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44">
+  <si>
+    <t xml:space="preserve">                      调拨单-ZH20180711000003</t>
   </si>
   <si>
     <t>基本信息</t>
@@ -43,39 +30,72 @@
     <t>所属项目：</t>
   </si>
   <si>
+    <t>groupName</t>
+  </si>
+  <si>
+    <t>创建时间：</t>
+  </si>
+  <si>
+    <t>createTime</t>
+  </si>
+  <si>
+    <t>客户名称：</t>
+  </si>
+  <si>
+    <t>customerName</t>
+  </si>
+  <si>
+    <t>联系人姓名：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">linkMan </t>
+  </si>
+  <si>
+    <t>联系人电话：</t>
+  </si>
+  <si>
+    <t>linkTelephone</t>
+  </si>
+  <si>
     <t xml:space="preserve">    </t>
   </si>
   <si>
-    <t>创建时间：</t>
-  </si>
-  <si>
-    <t>客户名称：</t>
-  </si>
-  <si>
-    <t>联系人姓名：</t>
-  </si>
-  <si>
-    <t>联系人电话：</t>
-  </si>
-  <si>
     <t>调出仓库：</t>
   </si>
   <si>
+    <t>inWarehouseName</t>
+  </si>
+  <si>
     <t>调出时间：</t>
   </si>
   <si>
+    <t>inTime</t>
+  </si>
+  <si>
     <t>调入仓库：</t>
   </si>
   <si>
+    <t>outWarehouseName</t>
+  </si>
+  <si>
     <t>调入时间：</t>
   </si>
   <si>
+    <t>outTime</t>
+  </si>
+  <si>
     <t>经办人：</t>
   </si>
   <si>
+    <t>operator</t>
+  </si>
+  <si>
     <t>备注：</t>
   </si>
   <si>
+    <t xml:space="preserve">remark </t>
+  </si>
+  <si>
     <t>商品信息</t>
   </si>
   <si>
@@ -104,6 +124,33 @@
   </si>
   <si>
     <t>备注</t>
+  </si>
+  <si>
+    <t>GoodsName</t>
+  </si>
+  <si>
+    <t>GoodsCode</t>
+  </si>
+  <si>
+    <t>GoodsBarcode</t>
+  </si>
+  <si>
+    <t>GoodsSpec</t>
+  </si>
+  <si>
+    <t>GoodsUnit</t>
+  </si>
+  <si>
+    <t>GoodsBatch</t>
+  </si>
+  <si>
+    <t>WhLocCode</t>
+  </si>
+  <si>
+    <t>AllotNum</t>
+  </si>
+  <si>
+    <t>Remark</t>
   </si>
 </sst>
 </file>
@@ -111,15 +158,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -134,13 +189,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
@@ -149,6 +197,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -157,23 +235,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -187,15 +271,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -210,31 +318,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -248,21 +333,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -272,32 +342,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -316,6 +363,72 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -328,7 +441,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -340,19 +525,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -364,133 +537,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -514,7 +561,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -534,6 +596,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -545,15 +625,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -575,30 +646,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -612,171 +659,177 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1130,28 +1183,58 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
@@ -1164,414 +1247,414 @@
         <v>4</v>
       </c>
       <c r="G5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G6" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G8" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G9" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="G10" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
+      <c r="A13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>23</v>
+      <c r="A14" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" t="s">
-        <v>3</v>
-      </c>
-      <c r="G15" t="s">
-        <v>3</v>
-      </c>
-      <c r="H15" t="s">
-        <v>3</v>
-      </c>
-      <c r="I15" t="s">
-        <v>3</v>
+      <c r="A15" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E16" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G16" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="H16" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="I16" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E17" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G17" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="H17" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="I17" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C18" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E18" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G18" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="H18" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="I18" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C19" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D19" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E19" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G19" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="H19" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="I19" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C20" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D20" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E20" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G20" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="H20" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="I20" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B21" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C21" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D21" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E21" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G21" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="H21" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="I21" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B22" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C22" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D22" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E22" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G22" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="H22" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="I22" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B23" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C23" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D23" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E23" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G23" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="H23" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="I23" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B24" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C24" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D24" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E24" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G24" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="H24" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="I24" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/clms-warehouse-manage/warehouse-service/src/main/resources/templates/allot_order.xlsx
+++ b/clms-warehouse-manage/warehouse-service/src/main/resources/templates/allot_order.xlsx
@@ -158,8 +158,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
@@ -204,8 +204,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,6 +235,79 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -227,88 +316,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -340,13 +347,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -363,181 +363,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -554,6 +554,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -577,30 +601,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -662,30 +662,30 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -695,124 +695,121 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1183,7 +1180,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1192,49 +1189,49 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
@@ -1326,73 +1323,73 @@
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G14" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H14" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="I14" s="7" t="s">
+      <c r="I14" s="6" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="F15" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="G15" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="H15" s="8" t="s">
+      <c r="H15" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="I15" s="8" t="s">
+      <c r="I15" s="7" t="s">
         <v>43</v>
       </c>
     </row>

--- a/clms-warehouse-manage/warehouse-service/src/main/resources/templates/allot_order.xlsx
+++ b/clms-warehouse-manage/warehouse-service/src/main/resources/templates/allot_order.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="22140" windowHeight="9840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,11 +15,12 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$54</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
+  <oleSize ref="A1:I24"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
   <si>
     <t xml:space="preserve">                      调拨单-ZH20180711000003</t>
   </si>
@@ -30,70 +31,43 @@
     <t>所属项目：</t>
   </si>
   <si>
-    <t>groupName</t>
+    <t xml:space="preserve">         </t>
   </si>
   <si>
     <t>创建时间：</t>
   </si>
   <si>
-    <t>createTime</t>
-  </si>
-  <si>
     <t>客户名称：</t>
   </si>
   <si>
-    <t>customerName</t>
-  </si>
-  <si>
     <t>联系人姓名：</t>
   </si>
   <si>
-    <t xml:space="preserve">linkMan </t>
-  </si>
-  <si>
     <t>联系人电话：</t>
   </si>
   <si>
-    <t>linkTelephone</t>
-  </si>
-  <si>
     <t xml:space="preserve">    </t>
   </si>
   <si>
     <t>调出仓库：</t>
   </si>
   <si>
-    <t>inWarehouseName</t>
-  </si>
-  <si>
     <t>调出时间：</t>
   </si>
   <si>
-    <t>inTime</t>
-  </si>
-  <si>
     <t>调入仓库：</t>
   </si>
   <si>
-    <t>outWarehouseName</t>
-  </si>
-  <si>
     <t>调入时间：</t>
   </si>
   <si>
-    <t>outTime</t>
-  </si>
-  <si>
     <t>经办人：</t>
   </si>
   <si>
-    <t>operator</t>
-  </si>
-  <si>
     <t>备注：</t>
   </si>
   <si>
-    <t xml:space="preserve">remark </t>
+    <t xml:space="preserve">                  </t>
   </si>
   <si>
     <t>商品信息</t>
@@ -124,33 +98,6 @@
   </si>
   <si>
     <t>备注</t>
-  </si>
-  <si>
-    <t>GoodsName</t>
-  </si>
-  <si>
-    <t>GoodsCode</t>
-  </si>
-  <si>
-    <t>GoodsBarcode</t>
-  </si>
-  <si>
-    <t>GoodsSpec</t>
-  </si>
-  <si>
-    <t>GoodsUnit</t>
-  </si>
-  <si>
-    <t>GoodsBatch</t>
-  </si>
-  <si>
-    <t>WhLocCode</t>
-  </si>
-  <si>
-    <t>AllotNum</t>
-  </si>
-  <si>
-    <t>Remark</t>
   </si>
 </sst>
 </file>
@@ -159,8 +106,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
@@ -204,6 +151,112 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -212,16 +265,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -229,90 +281,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -323,30 +294,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -363,37 +310,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -405,145 +490,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -554,15 +501,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -577,15 +515,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -608,23 +537,37 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -644,13 +587,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -662,10 +609,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -674,16 +621,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -692,115 +639,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -826,8 +773,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1177,10 +1124,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I56"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="G8" sqref="G8:I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1244,87 +1191,84 @@
         <v>4</v>
       </c>
       <c r="G5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" t="s">
+      <c r="G6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="E6" t="s">
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
         <v>8</v>
-      </c>
-      <c r="G6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G8" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G9" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="G10" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="4" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -1337,322 +1281,494 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="6" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>43</v>
-      </c>
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" t="s">
-        <v>12</v>
-      </c>
-      <c r="I16" t="s">
-        <v>12</v>
-      </c>
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
-      <c r="H17" t="s">
-        <v>12</v>
-      </c>
-      <c r="I17" t="s">
-        <v>12</v>
-      </c>
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
-      <c r="H18" t="s">
-        <v>12</v>
-      </c>
-      <c r="I18" t="s">
-        <v>12</v>
-      </c>
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
-      <c r="H19" t="s">
-        <v>12</v>
-      </c>
-      <c r="I19" t="s">
-        <v>12</v>
-      </c>
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
-      <c r="H20" t="s">
-        <v>12</v>
-      </c>
-      <c r="I20" t="s">
-        <v>12</v>
-      </c>
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" t="s">
-        <v>12</v>
-      </c>
-      <c r="H21" t="s">
-        <v>12</v>
-      </c>
-      <c r="I21" t="s">
-        <v>12</v>
-      </c>
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" t="s">
-        <v>12</v>
-      </c>
-      <c r="F22" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" t="s">
-        <v>12</v>
-      </c>
-      <c r="H22" t="s">
-        <v>12</v>
-      </c>
-      <c r="I22" t="s">
-        <v>12</v>
-      </c>
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" t="s">
-        <v>12</v>
-      </c>
-      <c r="B23" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" t="s">
-        <v>12</v>
-      </c>
-      <c r="H23" t="s">
-        <v>12</v>
-      </c>
-      <c r="I23" t="s">
-        <v>12</v>
-      </c>
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" t="s">
-        <v>12</v>
-      </c>
-      <c r="F24" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
-      <c r="H24" t="s">
-        <v>12</v>
-      </c>
-      <c r="I24" t="s">
-        <v>12</v>
-      </c>
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="7"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="7"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="7"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="7"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="7"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="7"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="7"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="7"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="7"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="7"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="7"/>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="7"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7"/>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="7"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="7"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7"/>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="7"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="7"/>
+      <c r="B55" s="7"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="7"/>
+      <c r="B56" s="7"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="29">
